--- a/data/trans_dic/P64D$particular_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$particular_2023-Edad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5018072942825017</v>
+        <v>0.5018072942825018</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.5407915333346522</v>
+        <v>0.5407915333346524</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.5200025487326446</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.347748109719395</v>
+        <v>0.3475106128406104</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3976631566539747</v>
+        <v>0.4068732150319844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4269112749961535</v>
+        <v>0.4109778005282914</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6574415485016787</v>
+        <v>0.6557073767699125</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6686860471365342</v>
+        <v>0.6773004046117697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6376632791590616</v>
+        <v>0.6290775975879058</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7173322713930609</v>
+        <v>0.7173322713930608</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.6121494373365464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6707172115979458</v>
+        <v>0.6707172115979457</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6533080497377202</v>
+        <v>0.6563716392746689</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5489667780562609</v>
+        <v>0.5526315629897764</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6302235209785343</v>
+        <v>0.6243701963196492</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7711608955410421</v>
+        <v>0.7722429682001819</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6652162074108018</v>
+        <v>0.6701149246142348</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7137591198520761</v>
+        <v>0.7056172750018193</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.639682007071773</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7094931755554037</v>
+        <v>0.7094931755554038</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7221065053019822</v>
+        <v>0.7185675870280301</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5963813513705951</v>
+        <v>0.5951698278078091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6804188608741637</v>
+        <v>0.6776321887084649</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8025217324466123</v>
+        <v>0.7959388712909096</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6795326129722161</v>
+        <v>0.682917911144879</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7374165015612149</v>
+        <v>0.7386150831726009</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7845014056253855</v>
+        <v>0.7845014056253856</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.6432367205149193</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7489179246657071</v>
+        <v>0.744589827010082</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6089267038302351</v>
+        <v>0.6085870490398989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6929822937512683</v>
+        <v>0.6939680632660562</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8212644487494121</v>
+        <v>0.8209584479017887</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6775185072899107</v>
+        <v>0.6758273831345866</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7475845231119896</v>
+        <v>0.7449117331625175</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.694495592625066</v>
+        <v>0.6944955926250658</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.531371409817632</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6430427066974792</v>
+        <v>0.6443973496463757</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4835736346066135</v>
+        <v>0.4757582025824714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5911579110565198</v>
+        <v>0.5880122095529023</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7397210452408215</v>
+        <v>0.7440102751566027</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5831392210724968</v>
+        <v>0.5837089999086315</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6599720101054073</v>
+        <v>0.6602898841518219</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7330281230803117</v>
+        <v>0.733028123080312</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.6119673632375902</v>
+        <v>0.61196736323759</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.679915235718631</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7098972840323038</v>
+        <v>0.7078510502894906</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5897120341572002</v>
+        <v>0.588728593235382</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6643020044436981</v>
+        <v>0.6638124359568103</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7553659590487641</v>
+        <v>0.755364499758494</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6352494165956197</v>
+        <v>0.6345153015326277</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6961865109463926</v>
+        <v>0.6968185156096185</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>36451</v>
+        <v>36426</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36483</v>
+        <v>37328</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>83915</v>
+        <v>80783</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>68914</v>
+        <v>68732</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61347</v>
+        <v>62138</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>125342</v>
+        <v>123654</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>258658</v>
+        <v>259871</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>172990</v>
+        <v>174145</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>448114</v>
+        <v>443952</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>305318</v>
+        <v>305746</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>209622</v>
+        <v>211166</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>507511</v>
+        <v>501722</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>387407</v>
+        <v>385509</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>236763</v>
+        <v>236282</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>635168</v>
+        <v>632566</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>430550</v>
+        <v>427018</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>269774</v>
+        <v>271118</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>688375</v>
+        <v>689493</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>407074</v>
+        <v>404722</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>277053</v>
+        <v>276898</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>691967</v>
+        <v>692951</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>446398</v>
+        <v>446232</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>308261</v>
+        <v>307491</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>746489</v>
+        <v>743820</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>210536</v>
+        <v>210980</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>112543</v>
+        <v>110724</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>331130</v>
+        <v>329368</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>242189</v>
+        <v>243593</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>135715</v>
+        <v>135848</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>369675</v>
+        <v>369853</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1354620</v>
+        <v>1350716</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>879602</v>
+        <v>878135</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2258475</v>
+        <v>2256810</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1441383</v>
+        <v>1441380</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>947525</v>
+        <v>946430</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2366875</v>
+        <v>2369023</v>
       </c>
     </row>
     <row r="28">
